--- a/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商其他投资/中国实际利用亚洲各国(地区)外商其他投资金额.xlsx
+++ b/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商其他投资/中国实际利用亚洲各国(地区)外商其他投资金额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS16"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,23 +658,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24044</v>
+        <v>12016</v>
       </c>
       <c r="C2" t="n">
-        <v>3511</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>122935</v>
+        <v>67314</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>166146</v>
+        <v>243721</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -695,29 +695,29 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="AB2" t="n">
-        <v>14532</v>
+        <v>163597</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="n">
-        <v>2</v>
-      </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>150</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
-        <v>1081</v>
+        <v>100</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -725,25 +725,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>39215</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3244</v>
-      </c>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>121779</v>
+        <v>78795</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>181004</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>105239</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1468</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -761,18 +759,14 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>169</v>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>16079</v>
+        <v>24976</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="n">
-        <v>170</v>
-      </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
@@ -783,32 +777,28 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>348</v>
-      </c>
+      <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44453</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3335</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>130902</v>
+        <v>109534</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>196401</v>
+        <v>117523</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -828,11 +818,9 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>214</v>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>16608</v>
+        <v>7500</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -843,39 +831,31 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>96</v>
-      </c>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>793</v>
-      </c>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>47007</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1550</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>181596</v>
+        <v>88298</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>240559</v>
+        <v>95279</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -893,22 +873,16 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>275</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>142</v>
-      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>8828</v>
+        <v>6981</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>385</v>
-      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
@@ -919,36 +893,26 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
-        <v>755</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>21</v>
-      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>34061</v>
-      </c>
-      <c r="C6" t="n">
-        <v>191</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>180673</v>
+        <v>11777</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>10071</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>232647</v>
+        <v>11777</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -968,683 +932,25 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6746</v>
-      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>164</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
-        <v>542</v>
-      </c>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>40462</v>
-      </c>
-      <c r="C7" t="n">
-        <v>826</v>
-      </c>
-      <c r="D7" t="n">
-        <v>184920</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>240763</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="n">
-        <v>551</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11662</v>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="n">
-        <v>178</v>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="n">
-        <v>1618</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>531</v>
-      </c>
-      <c r="AS7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>674</v>
-      </c>
-      <c r="C8" t="n">
-        <v>905</v>
-      </c>
-      <c r="D8" t="n">
-        <v>195077</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>210812</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>63</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11907</v>
-      </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
-        <v>1232</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>919</v>
-      </c>
-      <c r="AS8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>20698</v>
-      </c>
-      <c r="C9" t="n">
-        <v>832</v>
-      </c>
-      <c r="D9" t="n">
-        <v>208811</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>249781</v>
-      </c>
-      <c r="I9" t="n">
-        <v>199</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>436</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>168</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>16003</v>
-      </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="n">
-        <v>2034</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>600</v>
-      </c>
-      <c r="AS9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>15968</v>
-      </c>
-      <c r="C10" t="n">
-        <v>141</v>
-      </c>
-      <c r="D10" t="n">
-        <v>150548</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>194877</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>347</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="n">
-        <v>185</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>24667</v>
-      </c>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="n">
-        <v>1634</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1387</v>
-      </c>
-      <c r="AS10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>22560</v>
-      </c>
-      <c r="C11" t="n">
-        <v>84</v>
-      </c>
-      <c r="D11" t="n">
-        <v>65272</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>115524</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>700</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>248</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>22835</v>
-      </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="n">
-        <v>2225</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AS11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12016</v>
-      </c>
-      <c r="C12" t="n">
-        <v>44</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67314</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>243721</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>163597</v>
-      </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>78795</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>105239</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1468</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
-        <v>24976</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>489</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>109534</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>117523</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="n">
-        <v>7500</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>88298</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>95279</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="n">
-        <v>6981</v>
-      </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>11777</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>11777</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
